--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T14:38:29+00:00</t>
+    <t>2024-07-11T12:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:41:29+00:00</t>
+    <t>2024-08-13T14:32:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:32:33+00:00</t>
+    <t>2024-09-03T11:48:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T11:48:25+00:00</t>
+    <t>2024-09-03T12:38:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T12:38:03+00:00</t>
+    <t>2024-09-18T09:33:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T09:33:57+00:00</t>
+    <t>2024-11-13T15:16:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T15:16:58+00:00</t>
+    <t>2024-12-26T13:24:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T13:24:30+00:00</t>
+    <t>2025-04-11T07:24:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:24:27+00:00</t>
+    <t>2025-04-30T16:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:49:21+00:00</t>
+    <t>2025-05-05T07:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:40:26+00:00</t>
+    <t>2025-05-05T08:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:11:38+00:00</t>
+    <t>2025-05-05T10:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T10:03:44+00:00</t>
+    <t>2025-07-09T18:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T18:07:38+00:00</t>
+    <t>2025-07-21T09:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:49:33+00:00</t>
+    <t>2025-07-22T19:10:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t/>
+    <t>FRANCE</t>
   </si>
   <si>
     <t>Description</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:10:19+00:00</t>
+    <t>2025-07-31T09:35:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T09:35:58+00:00</t>
+    <t>2025-08-08T09:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-08T09:43:11+00:00</t>
+    <t>2025-08-21T08:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T08:04:49+00:00</t>
+    <t>2025-09-23T14:10:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:10:57+00:00</t>
+    <t>2025-10-24T13:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T13:47:42+00:00</t>
+    <t>2026-01-20T09:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/main/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T09:44:19+00:00</t>
+    <t>2026-01-20T11:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
